--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -29,13 +29,46 @@
     <t>101_output</t>
   </si>
   <si>
+    <t>オープニング</t>
+  </si>
+  <si>
+    <t>StageEventで設定</t>
+  </si>
+  <si>
     <t>102_output</t>
   </si>
   <si>
     <t>103_output</t>
   </si>
   <si>
+    <t>ステージ1開始イベント</t>
+  </si>
+  <si>
     <t>104_output</t>
+  </si>
+  <si>
+    <t>シイナ加入</t>
+  </si>
+  <si>
+    <t>Stage再生</t>
+  </si>
+  <si>
+    <t>105_output</t>
+  </si>
+  <si>
+    <t>Boss前</t>
+  </si>
+  <si>
+    <t>106_output</t>
+  </si>
+  <si>
+    <t>クリア後イベント</t>
+  </si>
+  <si>
+    <t>107_output</t>
+  </si>
+  <si>
+    <t>ステージ2開始イベント</t>
   </si>
   <si>
     <t>なし</t>
@@ -85,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +133,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -108,68 +148,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +162,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -197,16 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +230,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,67 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,115 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +476,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,54 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,15 +538,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -543,6 +546,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,145 +584,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,15 +1049,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="20.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1038,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1052,13 +1086,19 @@
         <f>INDEX(Define!B:B,MATCH(C2,Define!A:A))</f>
         <v>戦略</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1067,13 +1107,19 @@
         <f>INDEX(Define!B:B,MATCH(C3,Define!A:A))</f>
         <v>戦略</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1082,13 +1128,19 @@
         <f>INDEX(Define!B:B,MATCH(C4,Define!A:A))</f>
         <v>戦略</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -1096,6 +1148,75 @@
       <c r="D5" t="str">
         <f>INDEX(Define!B:B,MATCH(C5,Define!A:A))</f>
         <v>戦略</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="str">
+        <f>INDEX(Define!B:B,MATCH(C6,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="str">
+        <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" t="str">
+        <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1133,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1141,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1149,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1157,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1165,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1173,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1181,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1189,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1197,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1205,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1213,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1221,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1229,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -118,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,6 +133,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -140,6 +147,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -148,6 +210,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -163,14 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,101 +270,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,43 +285,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,139 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,33 +476,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,6 +509,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -547,17 +535,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,145 +584,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -69,6 +69,267 @@
   </si>
   <si>
     <t>ステージ2開始イベント</t>
+  </si>
+  <si>
+    <t>108_output</t>
+  </si>
+  <si>
+    <t>ステージ2イベント</t>
+  </si>
+  <si>
+    <t>109_output</t>
+  </si>
+  <si>
+    <t>110_output</t>
+  </si>
+  <si>
+    <t>ステージ3開始イベント</t>
+  </si>
+  <si>
+    <t>111_output</t>
+  </si>
+  <si>
+    <t>ステージ3イベント</t>
+  </si>
+  <si>
+    <t>112_output</t>
+  </si>
+  <si>
+    <t>113_output</t>
+  </si>
+  <si>
+    <t>114_output</t>
+  </si>
+  <si>
+    <t>ステージ4開始イベント</t>
+  </si>
+  <si>
+    <t>115_output</t>
+  </si>
+  <si>
+    <t>ステージ4イベント</t>
+  </si>
+  <si>
+    <t>116_output</t>
+  </si>
+  <si>
+    <t>117_output</t>
+  </si>
+  <si>
+    <t>118_output</t>
+  </si>
+  <si>
+    <t>119_output</t>
+  </si>
+  <si>
+    <t>ステージ5開始イベント</t>
+  </si>
+  <si>
+    <t>120_output</t>
+  </si>
+  <si>
+    <t>ステージ5イベント</t>
+  </si>
+  <si>
+    <t>121_output</t>
+  </si>
+  <si>
+    <t>122_output</t>
+  </si>
+  <si>
+    <t>123_output</t>
+  </si>
+  <si>
+    <t>ステージ6開始イベント</t>
+  </si>
+  <si>
+    <t>124_output</t>
+  </si>
+  <si>
+    <t>125_output</t>
+  </si>
+  <si>
+    <t>126_output</t>
+  </si>
+  <si>
+    <t>127_output</t>
+  </si>
+  <si>
+    <t>128_output</t>
+  </si>
+  <si>
+    <t>129_output</t>
+  </si>
+  <si>
+    <t>ステージ7開始イベント</t>
+  </si>
+  <si>
+    <t>130_output</t>
+  </si>
+  <si>
+    <t>ステージ7イベント</t>
+  </si>
+  <si>
+    <t>131_output</t>
+  </si>
+  <si>
+    <t>132_output</t>
+  </si>
+  <si>
+    <t>133_output</t>
+  </si>
+  <si>
+    <t>ステージ8開始イベント</t>
+  </si>
+  <si>
+    <t>134_output</t>
+  </si>
+  <si>
+    <t>135_output</t>
+  </si>
+  <si>
+    <t>136_output</t>
+  </si>
+  <si>
+    <t>ステージ8イベント</t>
+  </si>
+  <si>
+    <t>137_output</t>
+  </si>
+  <si>
+    <t>138_output</t>
+  </si>
+  <si>
+    <t>ステージ9開始イベント</t>
+  </si>
+  <si>
+    <t>139_output</t>
+  </si>
+  <si>
+    <t>140_output</t>
+  </si>
+  <si>
+    <t>141_output</t>
+  </si>
+  <si>
+    <t>142_output</t>
+  </si>
+  <si>
+    <t>ステージ10開始イベント</t>
+  </si>
+  <si>
+    <t>143_output</t>
+  </si>
+  <si>
+    <t>ステージ10イベント</t>
+  </si>
+  <si>
+    <t>144_output</t>
+  </si>
+  <si>
+    <t>145_output</t>
+  </si>
+  <si>
+    <t>146_output</t>
+  </si>
+  <si>
+    <t>ステージ11開始イベント</t>
+  </si>
+  <si>
+    <t>147_output</t>
+  </si>
+  <si>
+    <t>148_output</t>
+  </si>
+  <si>
+    <t>149_output</t>
+  </si>
+  <si>
+    <t>150_output</t>
+  </si>
+  <si>
+    <t>151_output</t>
+  </si>
+  <si>
+    <t>ステージ11イベント</t>
+  </si>
+  <si>
+    <t>152_output</t>
+  </si>
+  <si>
+    <t>153_output</t>
+  </si>
+  <si>
+    <t>154_output</t>
+  </si>
+  <si>
+    <t>ステージ12開始イベント</t>
+  </si>
+  <si>
+    <t>155_output</t>
+  </si>
+  <si>
+    <t>156_output</t>
+  </si>
+  <si>
+    <t>157_output</t>
+  </si>
+  <si>
+    <t>158_output</t>
+  </si>
+  <si>
+    <t>159_output</t>
+  </si>
+  <si>
+    <t>160_output</t>
+  </si>
+  <si>
+    <t>ステージ12イベント</t>
+  </si>
+  <si>
+    <t>161_output</t>
+  </si>
+  <si>
+    <t>162_output</t>
+  </si>
+  <si>
+    <t>ステージ13イベント</t>
+  </si>
+  <si>
+    <t>163_output</t>
+  </si>
+  <si>
+    <t>164_output</t>
+  </si>
+  <si>
+    <t>ステージ14開始イベント</t>
+  </si>
+  <si>
+    <t>165_output</t>
+  </si>
+  <si>
+    <t>166_output</t>
+  </si>
+  <si>
+    <t>167_output</t>
+  </si>
+  <si>
+    <t>ステージ15開始イベント</t>
+  </si>
+  <si>
+    <t>168_output</t>
+  </si>
+  <si>
+    <t>169_output</t>
+  </si>
+  <si>
+    <t>170_output</t>
+  </si>
+  <si>
+    <t>171_output</t>
+  </si>
+  <si>
+    <t>172_output</t>
   </si>
   <si>
     <t>なし</t>
@@ -120,8 +381,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,14 +394,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,15 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +424,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,23 +462,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +507,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -246,18 +523,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,14 +536,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,13 +546,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,169 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +737,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,65 +762,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +789,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,145 +845,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,13 +1310,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
     <col min="5" max="5" width="20.4545454545455" customWidth="1"/>
@@ -1216,6 +1477,1371 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="str">
+        <f>INDEX(Define!B:B,MATCH(C9,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str">
+        <f>INDEX(Define!B:B,MATCH(C10,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="str">
+        <f>INDEX(Define!B:B,MATCH(C11,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(Define!B:B,MATCH(C12,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="str">
+        <f>INDEX(Define!B:B,MATCH(C13,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="str">
+        <f>INDEX(Define!B:B,MATCH(C14,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="str">
+        <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="str">
+        <f>INDEX(Define!B:B,MATCH(C16,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="str">
+        <f>INDEX(Define!B:B,MATCH(C17,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="str">
+        <f>INDEX(Define!B:B,MATCH(C18,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" t="str">
+        <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="str">
+        <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="str">
+        <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" t="str">
+        <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23" t="str">
+        <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="str">
+        <f>INDEX(Define!B:B,MATCH(C24,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="str">
+        <f>INDEX(Define!B:B,MATCH(C25,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="str">
+        <f>INDEX(Define!B:B,MATCH(C26,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>260</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" t="str">
+        <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>270</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>280</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" t="str">
+        <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>290</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="str">
+        <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="str">
+        <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" t="str">
+        <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>320</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" t="str">
+        <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>330</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="str">
+        <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="str">
+        <f>INDEX(Define!B:B,MATCH(C35,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>350</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" t="str">
+        <f>INDEX(Define!B:B,MATCH(C36,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>360</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37" t="str">
+        <f>INDEX(Define!B:B,MATCH(C37,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>370</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" t="str">
+        <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>380</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39" t="str">
+        <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>390</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="str">
+        <f>INDEX(Define!B:B,MATCH(C40,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>400</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41" t="str">
+        <f>INDEX(Define!B:B,MATCH(C41,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>410</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" t="str">
+        <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>420</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43" t="str">
+        <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>430</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" t="str">
+        <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>440</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45" t="str">
+        <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>450</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="str">
+        <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>460</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" t="str">
+        <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>470</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48" t="str">
+        <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>480</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49" t="str">
+        <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>490</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50" t="str">
+        <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" t="str">
+        <f>INDEX(Define!B:B,MATCH(C51,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>510</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52" t="str">
+        <f>INDEX(Define!B:B,MATCH(C52,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>520</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53" t="str">
+        <f>INDEX(Define!B:B,MATCH(C53,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>530</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" t="str">
+        <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>540</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55" t="str">
+        <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>550</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="str">
+        <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>560</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57" t="str">
+        <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>570</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58" t="str">
+        <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>580</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59" t="str">
+        <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>590</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" t="str">
+        <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>600</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61" t="str">
+        <f>INDEX(Define!B:B,MATCH(C61,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>610</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62" t="str">
+        <f>INDEX(Define!B:B,MATCH(C62,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>620</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63" t="str">
+        <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>630</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64" t="str">
+        <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>640</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" t="str">
+        <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>650</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="str">
+        <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>660</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67" t="str">
+        <f>INDEX(Define!B:B,MATCH(C67,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>670</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68" t="str">
+        <f>INDEX(Define!B:B,MATCH(C68,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E68" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>680</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" t="str">
+        <f>INDEX(Define!B:B,MATCH(C69,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E69" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>690</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" t="str">
+        <f>INDEX(Define!B:B,MATCH(C70,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>700</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71" t="str">
+        <f>INDEX(Define!B:B,MATCH(C71,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>710</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72" t="str">
+        <f>INDEX(Define!B:B,MATCH(C72,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>720</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73" t="str">
+        <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1246,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1254,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1262,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1270,7 +2896,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1278,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1286,7 +2912,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1294,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1302,7 +2928,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1310,7 +2936,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1318,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1326,7 +2952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1334,7 +2960,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1342,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1350,7 +2976,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -23,6 +23,9 @@
     <t>AdvName</t>
   </si>
   <si>
+    <t>PrizeSetId</t>
+  </si>
+  <si>
     <t>EndJump</t>
   </si>
   <si>
@@ -32,9 +35,6 @@
     <t>オープニング</t>
   </si>
   <si>
-    <t>StageEventで設定</t>
-  </si>
-  <si>
     <t>102_output</t>
   </si>
   <si>
@@ -50,9 +50,6 @@
     <t>シイナ加入</t>
   </si>
   <si>
-    <t>Stage再生</t>
-  </si>
-  <si>
     <t>105_output</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
     <t>157_output</t>
   </si>
   <si>
+    <t>ステージ12イベント</t>
+  </si>
+  <si>
     <t>158_output</t>
   </si>
   <si>
@@ -284,7 +284,7 @@
     <t>160_output</t>
   </si>
   <si>
-    <t>ステージ12イベント</t>
+    <t>ステージ13イベント</t>
   </si>
   <si>
     <t>161_output</t>
@@ -293,7 +293,7 @@
     <t>162_output</t>
   </si>
   <si>
-    <t>ステージ13イベント</t>
+    <t>ステージ14イベント</t>
   </si>
   <si>
     <t>163_output</t>
@@ -302,7 +302,7 @@
     <t>164_output</t>
   </si>
   <si>
-    <t>ステージ14開始イベント</t>
+    <t>ステージ15開始イベント</t>
   </si>
   <si>
     <t>165_output</t>
@@ -314,7 +314,7 @@
     <t>167_output</t>
   </si>
   <si>
-    <t>ステージ15開始イベント</t>
+    <t>Ending</t>
   </si>
   <si>
     <t>168_output</t>
@@ -379,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -394,27 +394,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -430,7 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,15 +430,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,19 +444,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,24 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,6 +482,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -530,8 +498,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,187 +546,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,11 +742,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,6 +760,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,50 +827,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,145 +845,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,17 +1312,17 @@
   <sheetPr/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="3" width="13.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="20.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,6 +1331,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1338,17 +1341,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="str">
-        <f>INDEX(Define!B:B,MATCH(C2,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="str">
+        <f>INDEX(Define!B:B,MATCH(D2,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1362,14 +1365,14 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" t="str">
-        <f>INDEX(Define!B:B,MATCH(C3,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <f>INDEX(Define!B:B,MATCH(D3,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -1383,17 +1386,17 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" t="str">
-        <f>INDEX(Define!B:B,MATCH(C4,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="str">
+        <f>INDEX(Define!B:B,MATCH(D4,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1404,17 +1407,17 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="str">
-        <f>INDEX(Define!B:B,MATCH(C5,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="str">
+        <f>INDEX(Define!B:B,MATCH(D5,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1422,20 +1425,20 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="str">
+        <f>INDEX(Define!B:B,MATCH(D6,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6" t="str">
-        <f>INDEX(Define!B:B,MATCH(C6,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1443,20 +1446,20 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="str">
+        <f>INDEX(Define!B:B,MATCH(D7,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7" t="str">
-        <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1464,20 +1467,20 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="str">
+        <f>INDEX(Define!B:B,MATCH(D8,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8" t="str">
-        <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1485,20 +1488,20 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="str">
+        <f>INDEX(Define!B:B,MATCH(D9,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9" t="str">
-        <f>INDEX(Define!B:B,MATCH(C9,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1506,20 +1509,20 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="str">
-        <f>INDEX(Define!B:B,MATCH(C10,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <f>INDEX(Define!B:B,MATCH(D10,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1527,20 +1530,20 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="str">
+        <f>INDEX(Define!B:B,MATCH(D11,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" t="str">
-        <f>INDEX(Define!B:B,MATCH(C11,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1548,20 +1551,20 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="str">
+        <f>INDEX(Define!B:B,MATCH(D12,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" t="str">
-        <f>INDEX(Define!B:B,MATCH(C12,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1569,20 +1572,20 @@
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" t="str">
-        <f>INDEX(Define!B:B,MATCH(C13,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="str">
+        <f>INDEX(Define!B:B,MATCH(D13,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1590,20 +1593,20 @@
         <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" t="str">
-        <f>INDEX(Define!B:B,MATCH(C14,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="str">
+        <f>INDEX(Define!B:B,MATCH(D14,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1611,20 +1614,20 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="str">
+        <f>INDEX(Define!B:B,MATCH(D15,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15" t="str">
-        <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1632,20 +1635,20 @@
         <v>150</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="str">
+        <f>INDEX(Define!B:B,MATCH(D16,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="str">
-        <f>INDEX(Define!B:B,MATCH(C16,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1653,20 +1656,20 @@
         <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17" t="str">
-        <f>INDEX(Define!B:B,MATCH(C17,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="str">
+        <f>INDEX(Define!B:B,MATCH(D17,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1674,20 +1677,20 @@
         <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18" t="str">
-        <f>INDEX(Define!B:B,MATCH(C18,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="str">
+        <f>INDEX(Define!B:B,MATCH(D18,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1695,20 +1698,20 @@
         <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19" t="str">
-        <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" t="str">
+        <f>INDEX(Define!B:B,MATCH(D19,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1716,20 +1719,20 @@
         <v>190</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="str">
+        <f>INDEX(Define!B:B,MATCH(D20,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20" t="str">
-        <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1737,20 +1740,20 @@
         <v>200</v>
       </c>
       <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="str">
+        <f>INDEX(Define!B:B,MATCH(D21,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21" t="str">
-        <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1758,20 +1761,20 @@
         <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22" t="str">
-        <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" t="str">
+        <f>INDEX(Define!B:B,MATCH(D22,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1779,20 +1782,20 @@
         <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23" t="str">
-        <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="str">
+        <f>INDEX(Define!B:B,MATCH(D23,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1800,20 +1803,20 @@
         <v>230</v>
       </c>
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="str">
+        <f>INDEX(Define!B:B,MATCH(D24,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F24" t="s">
         <v>40</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24" t="str">
-        <f>INDEX(Define!B:B,MATCH(C24,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1821,20 +1824,20 @@
         <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25" t="str">
-        <f>INDEX(Define!B:B,MATCH(C25,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" t="str">
+        <f>INDEX(Define!B:B,MATCH(D25,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1842,20 +1845,20 @@
         <v>250</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26" t="str">
-        <f>INDEX(Define!B:B,MATCH(C26,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="str">
+        <f>INDEX(Define!B:B,MATCH(D26,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1863,20 +1866,20 @@
         <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27" t="str">
-        <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="str">
+        <f>INDEX(Define!B:B,MATCH(D27,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1884,20 +1887,20 @@
         <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>9</v>
-      </c>
-      <c r="D28" t="str">
-        <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="str">
+        <f>INDEX(Define!B:B,MATCH(D28,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1905,20 +1908,20 @@
         <v>280</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29" t="str">
-        <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="str">
+        <f>INDEX(Define!B:B,MATCH(D29,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1926,20 +1929,20 @@
         <v>290</v>
       </c>
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="str">
+        <f>INDEX(Define!B:B,MATCH(D30,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F30" t="s">
         <v>47</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30" t="str">
-        <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1947,20 +1950,20 @@
         <v>300</v>
       </c>
       <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="str">
+        <f>INDEX(Define!B:B,MATCH(D31,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F31" t="s">
         <v>49</v>
-      </c>
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31" t="str">
-        <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1968,20 +1971,20 @@
         <v>310</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32" t="str">
-        <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="str">
+        <f>INDEX(Define!B:B,MATCH(D32,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1989,20 +1992,20 @@
         <v>320</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33" t="str">
-        <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="str">
+        <f>INDEX(Define!B:B,MATCH(D33,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2010,20 +2013,20 @@
         <v>330</v>
       </c>
       <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="str">
+        <f>INDEX(Define!B:B,MATCH(D34,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F34" t="s">
         <v>53</v>
-      </c>
-      <c r="C34">
-        <v>9</v>
-      </c>
-      <c r="D34" t="str">
-        <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2031,20 +2034,20 @@
         <v>340</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35" t="str">
-        <f>INDEX(Define!B:B,MATCH(C35,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" t="str">
+        <f>INDEX(Define!B:B,MATCH(D35,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2052,20 +2055,20 @@
         <v>350</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36" t="str">
-        <f>INDEX(Define!B:B,MATCH(C36,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36" t="str">
+        <f>INDEX(Define!B:B,MATCH(D36,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2073,20 +2076,20 @@
         <v>360</v>
       </c>
       <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37" t="str">
+        <f>INDEX(Define!B:B,MATCH(D37,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F37" t="s">
         <v>57</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37" t="str">
-        <f>INDEX(Define!B:B,MATCH(C37,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2094,20 +2097,20 @@
         <v>370</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38" t="str">
-        <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38" t="str">
+        <f>INDEX(Define!B:B,MATCH(D38,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2115,20 +2118,20 @@
         <v>380</v>
       </c>
       <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" t="str">
+        <f>INDEX(Define!B:B,MATCH(D39,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F39" t="s">
         <v>60</v>
-      </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-      <c r="D39" t="str">
-        <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2136,20 +2139,20 @@
         <v>390</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="D40" t="str">
-        <f>INDEX(Define!B:B,MATCH(C40,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40" t="str">
+        <f>INDEX(Define!B:B,MATCH(D40,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2157,20 +2160,20 @@
         <v>400</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41">
-        <v>9</v>
-      </c>
-      <c r="D41" t="str">
-        <f>INDEX(Define!B:B,MATCH(C41,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E41" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41" t="str">
+        <f>INDEX(Define!B:B,MATCH(D41,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2178,20 +2181,20 @@
         <v>410</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42" t="str">
-        <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="str">
+        <f>INDEX(Define!B:B,MATCH(D42,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F42" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2199,20 +2202,20 @@
         <v>420</v>
       </c>
       <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43" t="str">
+        <f>INDEX(Define!B:B,MATCH(D43,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F43" t="s">
         <v>65</v>
-      </c>
-      <c r="C43">
-        <v>9</v>
-      </c>
-      <c r="D43" t="str">
-        <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2220,20 +2223,20 @@
         <v>430</v>
       </c>
       <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44" t="str">
+        <f>INDEX(Define!B:B,MATCH(D44,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F44" t="s">
         <v>67</v>
-      </c>
-      <c r="C44">
-        <v>9</v>
-      </c>
-      <c r="D44" t="str">
-        <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2241,20 +2244,20 @@
         <v>440</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45">
-        <v>9</v>
-      </c>
-      <c r="D45" t="str">
-        <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45" t="str">
+        <f>INDEX(Define!B:B,MATCH(D45,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2262,20 +2265,20 @@
         <v>450</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46">
-        <v>9</v>
-      </c>
-      <c r="D46" t="str">
-        <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E46" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46" t="str">
+        <f>INDEX(Define!B:B,MATCH(D46,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2283,20 +2286,20 @@
         <v>460</v>
       </c>
       <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="str">
+        <f>INDEX(Define!B:B,MATCH(D47,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F47" t="s">
         <v>71</v>
-      </c>
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="D47" t="str">
-        <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2304,20 +2307,20 @@
         <v>470</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48">
-        <v>9</v>
-      </c>
-      <c r="D48" t="str">
-        <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E48" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48" t="str">
+        <f>INDEX(Define!B:B,MATCH(D48,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2325,20 +2328,20 @@
         <v>480</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49" t="str">
-        <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E49" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49" t="str">
+        <f>INDEX(Define!B:B,MATCH(D49,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2346,20 +2349,20 @@
         <v>490</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50">
-        <v>9</v>
-      </c>
-      <c r="D50" t="str">
-        <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50" t="str">
+        <f>INDEX(Define!B:B,MATCH(D50,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2367,20 +2370,20 @@
         <v>500</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="D51" t="str">
-        <f>INDEX(Define!B:B,MATCH(C51,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51" t="str">
+        <f>INDEX(Define!B:B,MATCH(D51,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2388,20 +2391,20 @@
         <v>510</v>
       </c>
       <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" t="str">
+        <f>INDEX(Define!B:B,MATCH(D52,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F52" t="s">
         <v>77</v>
-      </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-      <c r="D52" t="str">
-        <f>INDEX(Define!B:B,MATCH(C52,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2409,20 +2412,20 @@
         <v>520</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="D53" t="str">
-        <f>INDEX(Define!B:B,MATCH(C53,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E53" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" t="str">
+        <f>INDEX(Define!B:B,MATCH(D53,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2430,20 +2433,20 @@
         <v>530</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="D54" t="str">
-        <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" t="str">
+        <f>INDEX(Define!B:B,MATCH(D54,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2451,20 +2454,20 @@
         <v>540</v>
       </c>
       <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="str">
+        <f>INDEX(Define!B:B,MATCH(D55,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F55" t="s">
         <v>81</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
-      </c>
-      <c r="D55" t="str">
-        <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E55" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2472,20 +2475,20 @@
         <v>550</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56">
-        <v>9</v>
-      </c>
-      <c r="D56" t="str">
-        <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E56" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" t="str">
+        <f>INDEX(Define!B:B,MATCH(D56,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2493,20 +2496,20 @@
         <v>560</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57" t="str">
-        <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E57" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" t="str">
+        <f>INDEX(Define!B:B,MATCH(D57,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2514,20 +2517,20 @@
         <v>570</v>
       </c>
       <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" t="str">
+        <f>INDEX(Define!B:B,MATCH(D58,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F58" t="s">
         <v>85</v>
-      </c>
-      <c r="C58">
-        <v>9</v>
-      </c>
-      <c r="D58" t="str">
-        <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2538,17 +2541,17 @@
         <v>86</v>
       </c>
       <c r="C59">
-        <v>9</v>
-      </c>
-      <c r="D59" t="str">
-        <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E59" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" t="str">
+        <f>INDEX(Define!B:B,MATCH(D59,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2559,17 +2562,17 @@
         <v>87</v>
       </c>
       <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60" t="str">
-        <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E60" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60" t="str">
+        <f>INDEX(Define!B:B,MATCH(D60,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2580,17 +2583,17 @@
         <v>88</v>
       </c>
       <c r="C61">
-        <v>9</v>
-      </c>
-      <c r="D61" t="str">
-        <f>INDEX(Define!B:B,MATCH(C61,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61" t="str">
+        <f>INDEX(Define!B:B,MATCH(D61,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F61" t="s">
         <v>89</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2601,17 +2604,17 @@
         <v>90</v>
       </c>
       <c r="C62">
-        <v>9</v>
-      </c>
-      <c r="D62" t="str">
-        <f>INDEX(Define!B:B,MATCH(C62,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E62" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62" t="str">
+        <f>INDEX(Define!B:B,MATCH(D62,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2622,17 +2625,17 @@
         <v>91</v>
       </c>
       <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="D63" t="str">
-        <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="str">
+        <f>INDEX(Define!B:B,MATCH(D63,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F63" t="s">
         <v>92</v>
-      </c>
-      <c r="F63" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2643,17 +2646,17 @@
         <v>93</v>
       </c>
       <c r="C64">
-        <v>9</v>
-      </c>
-      <c r="D64" t="str">
-        <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E64" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" t="str">
+        <f>INDEX(Define!B:B,MATCH(D64,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2664,17 +2667,17 @@
         <v>94</v>
       </c>
       <c r="C65">
-        <v>9</v>
-      </c>
-      <c r="D65" t="str">
-        <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65" t="str">
+        <f>INDEX(Define!B:B,MATCH(D65,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F65" t="s">
         <v>95</v>
-      </c>
-      <c r="F65" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2685,17 +2688,17 @@
         <v>96</v>
       </c>
       <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66" t="str">
-        <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66" t="str">
+        <f>INDEX(Define!B:B,MATCH(D66,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F66" t="s">
         <v>95</v>
-      </c>
-      <c r="F66" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2706,17 +2709,17 @@
         <v>97</v>
       </c>
       <c r="C67">
-        <v>9</v>
-      </c>
-      <c r="D67" t="str">
-        <f>INDEX(Define!B:B,MATCH(C67,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67" t="str">
+        <f>INDEX(Define!B:B,MATCH(D67,Define!A:A))</f>
+        <v>戦略</v>
       </c>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2727,17 +2730,17 @@
         <v>98</v>
       </c>
       <c r="C68">
-        <v>9</v>
-      </c>
-      <c r="D68" t="str">
-        <f>INDEX(Define!B:B,MATCH(C68,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68" t="str">
+        <f>INDEX(Define!B:B,MATCH(D68,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F68" t="s">
         <v>99</v>
-      </c>
-      <c r="F68" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2748,17 +2751,17 @@
         <v>100</v>
       </c>
       <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69" t="str">
-        <f>INDEX(Define!B:B,MATCH(C69,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69" t="str">
+        <f>INDEX(Define!B:B,MATCH(D69,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F69" t="s">
         <v>99</v>
-      </c>
-      <c r="F69" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2769,17 +2772,17 @@
         <v>101</v>
       </c>
       <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="D70" t="str">
-        <f>INDEX(Define!B:B,MATCH(C70,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70" t="str">
+        <f>INDEX(Define!B:B,MATCH(D70,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F70" t="s">
         <v>99</v>
-      </c>
-      <c r="F70" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2790,17 +2793,17 @@
         <v>102</v>
       </c>
       <c r="C71">
-        <v>9</v>
-      </c>
-      <c r="D71" t="str">
-        <f>INDEX(Define!B:B,MATCH(C71,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71" t="str">
+        <f>INDEX(Define!B:B,MATCH(D71,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F71" t="s">
         <v>99</v>
-      </c>
-      <c r="F71" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2811,17 +2814,17 @@
         <v>103</v>
       </c>
       <c r="C72">
-        <v>9</v>
-      </c>
-      <c r="D72" t="str">
-        <f>INDEX(Define!B:B,MATCH(C72,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72" t="str">
+        <f>INDEX(Define!B:B,MATCH(D72,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F72" t="s">
         <v>99</v>
-      </c>
-      <c r="F72" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2832,17 +2835,17 @@
         <v>104</v>
       </c>
       <c r="C73">
-        <v>9</v>
-      </c>
-      <c r="D73" t="str">
-        <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-      <c r="E73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73" t="str">
+        <f>INDEX(Define!B:B,MATCH(D73,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+      <c r="F73" t="s">
         <v>99</v>
-      </c>
-      <c r="F73" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +2867,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -379,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -390,20 +390,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,6 +407,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -430,7 +455,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,18 +477,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,42 +516,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,17 +530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,187 +546,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,15 +737,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -760,30 +751,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,7 +774,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,17 +837,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -845,145 +845,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1407,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D5">
         <v>9</v>
